--- a/trunk/Documentatie/TODO - adhv feedback hans.xlsx
+++ b/trunk/Documentatie/TODO - adhv feedback hans.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Wijzigen / verwijderen lid</t>
   </si>
@@ -24,44 +24,142 @@
     <t>MUST voor pre-release</t>
   </si>
   <si>
-    <t>MUST na pre-release</t>
-  </si>
-  <si>
-    <t>Leden zelf wachtwoord wijzigen</t>
-  </si>
-  <si>
     <t>Wijzigen / verwijderen project</t>
   </si>
   <si>
     <t>Wijzigen / verwijderen kennisgroep</t>
   </si>
   <si>
-    <t>uren</t>
-  </si>
-  <si>
     <t>Aanklikken leden werkt niet (werkt bij mij wel overigens)</t>
   </si>
   <si>
-    <t>Mijn kennisgroepen / Mijn projecten eigenlijk alles tonen.  Wellicht onder de lijsten met mijn projecten nog een lijst tonen met alle projecten. (Zelfde voor kennisgroepen)</t>
-  </si>
-  <si>
     <t>Uploaden van documenten lijst nog niet te werken</t>
   </si>
   <si>
     <t>Een discussie moet een vinkje krijgen die er voor zorgt dat ook niet-leden mee mogen doen. Zo is er onderscheid tussen gesloten discussies en open discussies.</t>
   </si>
   <si>
-    <t>Andere teksten instellen voor de bewegende kopteksten (input vereist Hans)</t>
-  </si>
-  <si>
     <t>Overige bugfixes (vanuit input Marketing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie </t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Documenten uploaden vanaf normaal account (rechtenkwestie)</t>
+  </si>
+  <si>
+    <t>Controleren of de agenda het goed doet (toevoegen / tonen)</t>
+  </si>
+  <si>
+    <t>Registreren verwijderen</t>
+  </si>
+  <si>
+    <t>bij discussie wel startdatum te zien,maar niet de actuele reacties op de landingspagina met datum</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Teksten uit de kop van landingspagina beheerbaar maken</t>
+  </si>
+  <si>
+    <t>Als je iets Quote, dan is deze quote niet heel duidelijk zichtbaar als zodanig</t>
+  </si>
+  <si>
+    <r>
+      <t>Op de homepage, onder kennisgroepen (2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kolom van links), staat er een aantal keer voor ‘bekijk kennisgroep’ een letter weergegeven. (bij Landstede TV een ‘s’ en bij Creatief en Ondernemend een ‘n’.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Onoverzichtelijk veld van de Agenda; data wordt niet goed weergegeven. Wanneer je op een activiteit (bv. startbijeenkomst vo/mbo) klikt komt er een andere titel voor. Ook kom je dan in de structuur: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Creative Learning Community</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Projecten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Professionalisering VO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ipv agenda.</t>
+    </r>
+  </si>
+  <si>
+    <t>Notities worden getoond onder de naam Admin, ipv de naam van de afzender.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +174,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,17 +221,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,110 +546,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C15"/>
+  <dimension ref="B1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="64.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>2</v>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Documentatie/TODO - adhv feedback hans.xlsx
+++ b/trunk/Documentatie/TODO - adhv feedback hans.xlsx
@@ -201,12 +201,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -243,6 +249,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +569,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -567,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -583,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -591,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -599,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -607,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -615,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -623,7 +633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -631,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -639,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
@@ -647,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -655,15 +665,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
@@ -671,7 +682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>

--- a/trunk/Documentatie/TODO - adhv feedback hans.xlsx
+++ b/trunk/Documentatie/TODO - adhv feedback hans.xlsx
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -254,6 +254,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +562,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,10 +629,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
     </row>

--- a/trunk/Documentatie/TODO - adhv feedback hans.xlsx
+++ b/trunk/Documentatie/TODO - adhv feedback hans.xlsx
@@ -562,7 +562,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,10 +662,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
     </row>

--- a/trunk/Documentatie/TODO - adhv feedback hans.xlsx
+++ b/trunk/Documentatie/TODO - adhv feedback hans.xlsx
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -256,6 +256,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,7 +565,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +683,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
     </row>

--- a/trunk/Documentatie/TODO - adhv feedback hans.xlsx
+++ b/trunk/Documentatie/TODO - adhv feedback hans.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Wijzigen / verwijderen lid</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Notities worden getoond onder de naam Admin, ipv de naam van de afzender.</t>
+  </si>
+  <si>
+    <t>Lariekoek ende bullshit, niet te reproduceren</t>
+  </si>
+  <si>
+    <t>Gemekker over die link slaat nergens op, verwijst gewoon naar het bijbehorende project.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -242,12 +254,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -260,6 +266,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,147 +589,189 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="84.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11" t="s">
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12" t="s">
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="D16" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="D17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Documentatie/TODO - adhv feedback hans.xlsx
+++ b/trunk/Documentatie/TODO - adhv feedback hans.xlsx
@@ -254,9 +254,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -276,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +581,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,10 +599,10 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="14"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -611,7 +611,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -620,7 +620,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -629,7 +629,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -638,7 +638,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -647,7 +647,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -656,17 +656,17 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -675,7 +675,7 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -684,7 +684,7 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -693,85 +693,86 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="14"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
